--- a/Tasks Management.xlsx
+++ b/Tasks Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96552E84-45DA-43AB-8EDA-A9133030228D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F0A72-5D14-4A6D-BFB3-F0A19A4EDAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Management" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -91,6 +91,40 @@
   </si>
   <si>
     <t>Tổng hợp Test Cases của cả nhóm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Sơn</t>
+  </si>
+  <si>
+    <t>Thiết kế 107 testcases cho các chức năng từ F011 đến F019.
+Gồm 4 test types: GUI &amp;Usability, Functional, Security, Compatibility.</t>
+  </si>
+  <si>
+    <t>Thực thi các testcases cho các chức năng từ F011 đến F019</t>
+  </si>
+  <si>
+    <t>Tổng hợp và viết Bug Report cho các Bug phát hiện được</t>
+  </si>
+  <si>
+    <t>Chụp ảnh, quay màn hình mô tả các Bug trong Bug Report (chức năng F011 đến F019)</t>
+  </si>
+  <si>
+    <t>Tổng hợp kết quả Defect Serverity Distribution và Test Summary Report (chức năng F011 đến F019)</t>
+  </si>
+  <si>
+    <t>Viết Test Plan: Mục 4. Environmental Needs</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>0.5h</t>
   </si>
 </sst>
 </file>
@@ -101,7 +135,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,18 +156,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,21 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.796875" style="1"/>
+    <col min="3" max="3" width="14.85546875" style="3"/>
+    <col min="4" max="4" width="30" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -449,13 +507,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>1612593</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1">
@@ -463,173 +524,309 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1">
         <v>1612593</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>1612593</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>1612593</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>1612593</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>1612593</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
         <v>1612593</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1">
         <v>1612593</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1">
         <v>1612593</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1">
         <v>1612593</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1">
         <v>1612593</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1">
         <v>1612593</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="14" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1712730</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1712730</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B16" s="2">
+        <v>1712730</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B17" s="2">
+        <v>1712730</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1712730</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1712730</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>